--- a/kinou.xlsx
+++ b/kinou.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\venv_Projects\openpyxl_PRJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF976A0-BC88-4DE8-A3A0-82570445203A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32570E8F-DDAB-4502-A004-1150E9BEBCBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11805" yWindow="2115" windowWidth="15300" windowHeight="10875" xr2:uid="{DF5EC2B9-2194-4625-8134-943C79AE35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DF5EC2B9-2194-4625-8134-943C79AE35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -62,25 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細計画効率化_内部設計</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>コウリツカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バッチorPython</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,6 +90,106 @@
     <rPh sb="24" eb="26">
       <t>サギョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生番号</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はなこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安部</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>John</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cristiano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太田Michel</t>
+    <rPh sb="0" eb="2">
+      <t>オオタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -153,8 +236,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,11 +557,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EFFF75-7689-4A6B-A1E8-E7F6684919ED}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -483,12 +567,21 @@
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -502,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>1</v>
       </c>
@@ -510,68 +603,68 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>13</v>
       </c>
@@ -630,4 +723,281 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3490AF21-091D-4A10-BD56-214C0C5C5830}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(70,100)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E14" ca="1" si="0">RANDBETWEEN(70,100)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>1017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>300</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A65AB0-555A-48C0-8EDB-6A002219B291}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kinou.xlsx
+++ b/kinou.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\venv_Projects\openpyxl_PRJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32570E8F-DDAB-4502-A004-1150E9BEBCBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B211D02-733E-4FFC-9307-3DFCAC2C5C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DF5EC2B9-2194-4625-8134-943C79AE35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DF5EC2B9-2194-4625-8134-943C79AE35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="機種別" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -190,6 +191,132 @@
   </si>
   <si>
     <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aクラブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポートネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とらぶる解消</t>
+    <rPh sb="4" eb="6">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なると</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestPhone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全件</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NGOK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実施</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残件</t>
+    <rPh sb="0" eb="2">
+      <t>ザンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.4.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.6.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.7.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.7.7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -236,12 +363,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3490AF21-091D-4A10-BD56-214C0C5C5830}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -770,7 +900,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(70,100)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -788,7 +918,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E14" ca="1" si="0">RANDBETWEEN(70,100)</f>
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -806,7 +936,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -824,7 +954,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -839,7 +969,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -857,7 +987,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -875,7 +1005,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -893,7 +1023,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -911,7 +1041,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -929,7 +1059,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -965,7 +1095,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -980,7 +1110,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1000,4 +1130,598 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D58B4E9-8737-4D5A-9A0C-8E4C5A4178A7}">
+  <dimension ref="A4:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E9:E14)</f>
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:K8" si="0">SUM(F9:F14)</f>
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L9:L14)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K14" si="1">E9-F9-G9-H9-I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L14" si="2">K9+J9</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E21:E26)</f>
+        <v>54</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="3">SUM(F21:F26)</f>
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="4">SUM(G21:G26)</f>
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="5">SUM(H21:H26)</f>
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="6">SUM(I21:I26)</f>
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="7">SUM(J21:J26)</f>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20" si="8">SUM(K21:K26)</f>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <f>SUM(L21:L26)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K26" si="9">E21-F21-G21-H21-I21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L26" si="10">K21+J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>